--- a/artfynd/A 20540-2023.xlsx
+++ b/artfynd/A 20540-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112438831</v>
+        <v>112438832</v>
       </c>
       <c r="B2" t="n">
-        <v>89058</v>
+        <v>90166</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>256703</v>
+        <v>1339</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503890</v>
+        <v>503830</v>
       </c>
       <c r="R2" t="n">
-        <v>6543669</v>
+        <v>6543680</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112438832</v>
+        <v>112438831</v>
       </c>
       <c r="B3" t="n">
-        <v>90152</v>
+        <v>89072</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1339</v>
+        <v>256703</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503830</v>
+        <v>503890</v>
       </c>
       <c r="R3" t="n">
-        <v>6543680</v>
+        <v>6543669</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 20540-2023.xlsx
+++ b/artfynd/A 20540-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112438832</v>
+        <v>112438831</v>
       </c>
       <c r="B2" t="n">
-        <v>90166</v>
+        <v>89072</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1339</v>
+        <v>256703</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503830</v>
+        <v>503890</v>
       </c>
       <c r="R2" t="n">
-        <v>6543680</v>
+        <v>6543669</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112438831</v>
+        <v>112438832</v>
       </c>
       <c r="B3" t="n">
-        <v>89072</v>
+        <v>90166</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>256703</v>
+        <v>1339</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503890</v>
+        <v>503830</v>
       </c>
       <c r="R3" t="n">
-        <v>6543669</v>
+        <v>6543680</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
